--- a/树形结构输出示例.xlsx
+++ b/树形结构输出示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QK\Desktop\mohen\mohen_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F86B55-9504-4F25-8A02-8ACDFBBF41C9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C633410-8F74-4949-8429-19E3DEACAE26}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8925" windowHeight="4815" xr2:uid="{2E409B2E-3ECA-4FF0-A7C0-6A2CE2B0E478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
   <si>
     <t>v1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,11 +111,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utc_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exttype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uyear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5feufrg7drg6dg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fsjgsgsngdgdw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8sfns8sfsswfgxc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9dse42vs3vsegg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3fs5gsg4bsvwaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7fsjgsgsngdgdw</t>
+  </si>
+  <si>
+    <t>8fsjgsgsngdgdw</t>
+  </si>
+  <si>
+    <t>5feufrg7drg7dg</t>
+  </si>
+  <si>
+    <t>5feufrg7drg8dg</t>
+  </si>
+  <si>
+    <t>8sfns9sfsswfgxc</t>
+  </si>
+  <si>
+    <t>8sfns10sfsswfgxc</t>
+  </si>
+  <si>
+    <t>9dse42vs4vsegg</t>
+  </si>
+  <si>
+    <t>9dse42vs5vsegg</t>
+  </si>
+  <si>
+    <t>3fs5gsg5bsvwaa</t>
+  </si>
+  <si>
+    <t>3fs5gsg6bsvwaa</t>
+  </si>
+  <si>
+    <t>Y|Y|N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N|N|Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A|B|C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B|B|B|B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B|D|C|E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,6 +301,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D80D1F-61F2-46F3-B65A-97247F2F2091}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -510,14 +635,16 @@
     <col min="9" max="9" width="17.46484375" customWidth="1"/>
     <col min="10" max="10" width="9.19921875" customWidth="1"/>
     <col min="11" max="11" width="18.796875" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="12.1328125" customWidth="1"/>
     <col min="13" max="13" width="9.19921875" customWidth="1"/>
-    <col min="14" max="14" width="18.796875" customWidth="1"/>
-    <col min="16" max="16" width="18.796875" customWidth="1"/>
-    <col min="17" max="17" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" customWidth="1"/>
+    <col min="17" max="17" width="15.53125" customWidth="1"/>
+    <col min="18" max="18" width="14.9296875" customWidth="1"/>
+    <col min="19" max="19" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -540,22 +667,46 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -576,7 +727,7 @@
         <v>43155</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -599,7 +750,7 @@
         <v>4235</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -622,7 +773,7 @@
         <v>6565</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -645,7 +796,7 @@
         <v>5435</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -668,7 +819,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -691,7 +842,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -714,7 +865,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,7 +888,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -760,7 +911,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -783,12 +934,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -806,7 +957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -825,14 +976,35 @@
       <c r="G13">
         <v>0.5</v>
       </c>
+      <c r="H13">
+        <v>20180214</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13">
+        <v>497</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
       <c r="L13">
-        <v>20180214</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>43230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2011</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -851,14 +1023,35 @@
       <c r="G14">
         <v>0.5</v>
       </c>
+      <c r="H14">
+        <v>20180714</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14">
+        <v>512</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
       <c r="L14">
-        <v>20180714</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>43261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2013</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -877,16 +1070,37 @@
       <c r="G15">
         <v>0.5</v>
       </c>
+      <c r="H15">
+        <v>20181201</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <v>422</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
       <c r="L15">
-        <v>20181201</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>43271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2015</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -903,14 +1117,35 @@
       <c r="G16">
         <v>0.1</v>
       </c>
+      <c r="H16">
+        <v>20190214</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16">
+        <v>209</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
       <c r="L16">
-        <v>20190214</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>43235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2018</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -929,8 +1164,549 @@
       <c r="G17">
         <v>0.15</v>
       </c>
+      <c r="H17">
+        <v>20190914</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <v>291</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
       <c r="L17">
+        <v>2012</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>123</v>
+      </c>
+      <c r="E18">
+        <v>0.95</v>
+      </c>
+      <c r="F18">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>0.15</v>
+      </c>
+      <c r="H18">
         <v>20190914</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18">
+        <v>291</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>2012</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>123</v>
+      </c>
+      <c r="E19">
+        <v>0.95</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>0.15</v>
+      </c>
+      <c r="H19">
+        <v>20190914</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19">
+        <v>291</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>2012</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>123</v>
+      </c>
+      <c r="E20">
+        <v>0.95</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>0.15</v>
+      </c>
+      <c r="H20">
+        <v>20190914</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <v>291</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>2012</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>123</v>
+      </c>
+      <c r="E21">
+        <v>0.95</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>0.15</v>
+      </c>
+      <c r="H21">
+        <v>20190914</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21">
+        <v>291</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>2012</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>123</v>
+      </c>
+      <c r="E22">
+        <v>0.95</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>0.15</v>
+      </c>
+      <c r="H22">
+        <v>20190914</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22">
+        <v>291</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>2012</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>123</v>
+      </c>
+      <c r="E23">
+        <v>0.95</v>
+      </c>
+      <c r="F23">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>0.15</v>
+      </c>
+      <c r="H23">
+        <v>20190914</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23">
+        <v>291</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>2012</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>123</v>
+      </c>
+      <c r="E24">
+        <v>0.95</v>
+      </c>
+      <c r="F24">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>0.15</v>
+      </c>
+      <c r="H24">
+        <v>20190914</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24">
+        <v>291</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>2012</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>123</v>
+      </c>
+      <c r="E25">
+        <v>0.95</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>0.15</v>
+      </c>
+      <c r="H25">
+        <v>20190914</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25">
+        <v>291</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>2012</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>123</v>
+      </c>
+      <c r="E26">
+        <v>0.95</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>0.15</v>
+      </c>
+      <c r="H26">
+        <v>20190914</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26">
+        <v>291</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>2012</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>123</v>
+      </c>
+      <c r="E27">
+        <v>0.95</v>
+      </c>
+      <c r="F27">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>0.15</v>
+      </c>
+      <c r="H27">
+        <v>20190914</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27">
+        <v>291</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>2012</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>123</v>
+      </c>
+      <c r="E28">
+        <v>0.95</v>
+      </c>
+      <c r="F28">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>0.15</v>
+      </c>
+      <c r="H28">
+        <v>20190914</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28">
+        <v>291</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>2012</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
